--- a/xlsx/nfeature: 3072, hamming_tolerance: 50, k_knn: 15.xlsx
+++ b/xlsx/nfeature: 3072, hamming_tolerance: 50, k_knn: 15.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G44"/>
+  <dimension ref="A1:G45"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -428,7 +428,7 @@
         </is>
       </c>
       <c r="B1" t="n">
-        <v>0.641</v>
+        <v>0.442</v>
       </c>
       <c r="C1" t="n">
         <v>0.001</v>
@@ -457,10 +457,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1.099</v>
+        <v>0.859</v>
       </c>
       <c r="C2" t="n">
-        <v>0.002</v>
+        <v>0.003</v>
       </c>
       <c r="D2" t="n">
         <v>0.853</v>
@@ -486,10 +486,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>1.087</v>
+        <v>0.835</v>
       </c>
       <c r="C3" t="n">
-        <v>0.002</v>
+        <v>0.003</v>
       </c>
       <c r="D3" t="n">
         <v>0.856</v>
@@ -515,7 +515,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0.639</v>
+        <v>0.438</v>
       </c>
       <c r="C4" t="n">
         <v>0.001</v>
@@ -544,7 +544,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0.638</v>
+        <v>0.453</v>
       </c>
       <c r="C5" t="n">
         <v>0.001</v>
@@ -573,16 +573,16 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>2.189</v>
+        <v>1.669</v>
       </c>
       <c r="C6" t="n">
         <v>0.005</v>
       </c>
       <c r="D6" t="n">
-        <v>0.627</v>
+        <v>0.658</v>
       </c>
       <c r="E6" t="n">
-        <v>0.733</v>
+        <v>0.867</v>
       </c>
       <c r="F6" t="inlineStr">
         <is>
@@ -602,16 +602,16 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>1.56</v>
+        <v>1.191</v>
       </c>
       <c r="C7" t="n">
-        <v>0.003</v>
+        <v>0.004</v>
       </c>
       <c r="D7" t="n">
-        <v>0.727</v>
+        <v>0.742</v>
       </c>
       <c r="E7" t="n">
-        <v>0.533</v>
+        <v>0.867</v>
       </c>
       <c r="F7" t="inlineStr">
         <is>
@@ -631,13 +631,13 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>2.144</v>
+        <v>1.754</v>
       </c>
       <c r="C8" t="n">
-        <v>0.005</v>
+        <v>0.006</v>
       </c>
       <c r="D8" t="n">
-        <v>0.949</v>
+        <v>0.95</v>
       </c>
       <c r="E8" t="n">
         <v>1</v>
@@ -660,16 +660,16 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>1.593</v>
+        <v>1.157</v>
       </c>
       <c r="C9" t="n">
-        <v>0.003</v>
+        <v>0.004</v>
       </c>
       <c r="D9" t="n">
-        <v>0.712</v>
+        <v>0.746</v>
       </c>
       <c r="E9" t="n">
-        <v>0.6</v>
+        <v>0.867</v>
       </c>
       <c r="F9" t="inlineStr">
         <is>
@@ -689,16 +689,16 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>2.152</v>
+        <v>1.626</v>
       </c>
       <c r="C10" t="n">
-        <v>0.004</v>
+        <v>0.005</v>
       </c>
       <c r="D10" t="n">
-        <v>0.709</v>
+        <v>0.718</v>
       </c>
       <c r="E10" t="n">
-        <v>0.533</v>
+        <v>0.867</v>
       </c>
       <c r="F10" t="inlineStr">
         <is>
@@ -718,13 +718,13 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>1.036</v>
+        <v>0.957</v>
       </c>
       <c r="C11" t="n">
-        <v>0.002</v>
+        <v>0.003</v>
       </c>
       <c r="D11" t="n">
-        <v>0.774</v>
+        <v>0.773</v>
       </c>
       <c r="E11" t="n">
         <v>0.9330000000000001</v>
@@ -747,10 +747,10 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>1.392</v>
+        <v>1.098</v>
       </c>
       <c r="C12" t="n">
-        <v>0.003</v>
+        <v>0.004</v>
       </c>
       <c r="D12" t="n">
         <v>0.9320000000000001</v>
@@ -776,13 +776,13 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>1.048</v>
+        <v>0.886</v>
       </c>
       <c r="C13" t="n">
         <v>0.003</v>
       </c>
       <c r="D13" t="n">
-        <v>0.788</v>
+        <v>0.787</v>
       </c>
       <c r="E13" t="n">
         <v>1</v>
@@ -805,7 +805,7 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>1.193</v>
+        <v>0.923</v>
       </c>
       <c r="C14" t="n">
         <v>0.003</v>
@@ -834,16 +834,16 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>1.221</v>
+        <v>0.947</v>
       </c>
       <c r="C15" t="n">
         <v>0.003</v>
       </c>
       <c r="D15" t="n">
-        <v>0.853</v>
+        <v>0.831</v>
       </c>
       <c r="E15" t="n">
-        <v>0.533</v>
+        <v>0.733</v>
       </c>
       <c r="F15" t="inlineStr">
         <is>
@@ -863,7 +863,7 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>1.001</v>
+        <v>0.708</v>
       </c>
       <c r="C16" t="n">
         <v>0.002</v>
@@ -892,16 +892,16 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>0.958</v>
+        <v>0.6919999999999999</v>
       </c>
       <c r="C17" t="n">
         <v>0.002</v>
       </c>
       <c r="D17" t="n">
-        <v>0.843</v>
+        <v>0.822</v>
       </c>
       <c r="E17" t="n">
-        <v>0.733</v>
+        <v>0.8</v>
       </c>
       <c r="F17" t="inlineStr">
         <is>
@@ -921,13 +921,13 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>1.369</v>
+        <v>1.032</v>
       </c>
       <c r="C18" t="n">
         <v>0.003</v>
       </c>
       <c r="D18" t="n">
-        <v>0.863</v>
+        <v>0.87</v>
       </c>
       <c r="E18" t="n">
         <v>1</v>
@@ -950,7 +950,7 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>0.862</v>
+        <v>0.646</v>
       </c>
       <c r="C19" t="n">
         <v>0.002</v>
@@ -979,16 +979,16 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>1.307</v>
+        <v>1.047</v>
       </c>
       <c r="C20" t="n">
-        <v>0.003</v>
+        <v>0.004</v>
       </c>
       <c r="D20" t="n">
-        <v>0.762</v>
+        <v>0.74</v>
       </c>
       <c r="E20" t="n">
-        <v>0.867</v>
+        <v>0.9330000000000001</v>
       </c>
       <c r="F20" t="inlineStr">
         <is>
@@ -1008,13 +1008,13 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>0.865</v>
+        <v>0.518</v>
       </c>
       <c r="C21" t="n">
-        <v>0.001</v>
+        <v>0.002</v>
       </c>
       <c r="D21" t="n">
-        <v>0.783</v>
+        <v>0.781</v>
       </c>
       <c r="E21" t="n">
         <v>0.467</v>
@@ -1037,16 +1037,16 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>1.504</v>
+        <v>1.287</v>
       </c>
       <c r="C22" t="n">
         <v>0.004</v>
       </c>
       <c r="D22" t="n">
-        <v>0.646</v>
+        <v>0.6929999999999999</v>
       </c>
       <c r="E22" t="n">
-        <v>0.467</v>
+        <v>0.4</v>
       </c>
       <c r="F22" t="inlineStr">
         <is>
@@ -1066,16 +1066,16 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>1.446</v>
+        <v>1.168</v>
       </c>
       <c r="C23" t="n">
-        <v>0.003</v>
+        <v>0.004</v>
       </c>
       <c r="D23" t="n">
-        <v>0.792</v>
+        <v>0.78</v>
       </c>
       <c r="E23" t="n">
-        <v>0.9330000000000001</v>
+        <v>1</v>
       </c>
       <c r="F23" t="inlineStr">
         <is>
@@ -1095,13 +1095,13 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>1.733</v>
+        <v>1.509</v>
       </c>
       <c r="C24" t="n">
-        <v>0.004</v>
+        <v>0.005</v>
       </c>
       <c r="D24" t="n">
-        <v>0.881</v>
+        <v>0.864</v>
       </c>
       <c r="E24" t="n">
         <v>0.867</v>
@@ -1124,13 +1124,13 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>1.605</v>
+        <v>1.348</v>
       </c>
       <c r="C25" t="n">
         <v>0.004</v>
       </c>
       <c r="D25" t="n">
-        <v>0.904</v>
+        <v>0.888</v>
       </c>
       <c r="E25" t="n">
         <v>0.867</v>
@@ -1153,16 +1153,16 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>1.422</v>
+        <v>1.106</v>
       </c>
       <c r="C26" t="n">
-        <v>0.003</v>
+        <v>0.004</v>
       </c>
       <c r="D26" t="n">
-        <v>0.523</v>
+        <v>0.517</v>
       </c>
       <c r="E26" t="n">
-        <v>0.667</v>
+        <v>0.733</v>
       </c>
       <c r="F26" t="inlineStr">
         <is>
@@ -1182,16 +1182,16 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>1.681</v>
+        <v>1.391</v>
       </c>
       <c r="C27" t="n">
-        <v>0.004</v>
+        <v>0.005</v>
       </c>
       <c r="D27" t="n">
-        <v>0.894</v>
+        <v>0.875</v>
       </c>
       <c r="E27" t="n">
-        <v>0.867</v>
+        <v>0.9330000000000001</v>
       </c>
       <c r="F27" t="inlineStr">
         <is>
@@ -1211,13 +1211,13 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>1.757</v>
+        <v>1.449</v>
       </c>
       <c r="C28" t="n">
-        <v>0.004</v>
+        <v>0.005</v>
       </c>
       <c r="D28" t="n">
-        <v>0.888</v>
+        <v>0.875</v>
       </c>
       <c r="E28" t="n">
         <v>0.9330000000000001</v>
@@ -1240,7 +1240,7 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>1.052</v>
+        <v>0.858</v>
       </c>
       <c r="C29" t="n">
         <v>0.003</v>
@@ -1269,13 +1269,13 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>1.884</v>
+        <v>1.655</v>
       </c>
       <c r="C30" t="n">
         <v>0.005</v>
       </c>
       <c r="D30" t="n">
-        <v>0.874</v>
+        <v>0.881</v>
       </c>
       <c r="E30" t="n">
         <v>1</v>
@@ -1298,16 +1298,16 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>0.965</v>
+        <v>0.6909999999999999</v>
       </c>
       <c r="C31" t="n">
         <v>0.002</v>
       </c>
       <c r="D31" t="n">
-        <v>0.779</v>
+        <v>0.783</v>
       </c>
       <c r="E31" t="n">
-        <v>0.4</v>
+        <v>0.333</v>
       </c>
       <c r="F31" t="inlineStr">
         <is>
@@ -1327,13 +1327,13 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>0.991</v>
+        <v>0.73</v>
       </c>
       <c r="C32" t="n">
         <v>0.002</v>
       </c>
       <c r="D32" t="n">
-        <v>0.759</v>
+        <v>0.761</v>
       </c>
       <c r="E32" t="n">
         <v>0.267</v>
@@ -1356,25 +1356,25 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>1.177</v>
+        <v>1.127</v>
       </c>
       <c r="C33" t="n">
-        <v>0.003</v>
+        <v>0.004</v>
       </c>
       <c r="D33" t="n">
-        <v>0.644</v>
+        <v>0.834</v>
       </c>
       <c r="E33" t="n">
-        <v>0.667</v>
+        <v>0.333</v>
       </c>
       <c r="F33" t="inlineStr">
         <is>
-          <t>Fanny Yusuf</t>
+          <t>Tidak Diketahui</t>
         </is>
       </c>
       <c r="G33" t="inlineStr">
         <is>
-          <t>Benar</t>
+          <t>Salah</t>
         </is>
       </c>
     </row>
@@ -1385,25 +1385,25 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>1.13</v>
+        <v>1.681</v>
       </c>
       <c r="C34" t="n">
-        <v>0.002</v>
+        <v>0.006</v>
       </c>
       <c r="D34" t="n">
-        <v>0.6870000000000001</v>
+        <v>0.857</v>
       </c>
       <c r="E34" t="n">
-        <v>0.667</v>
+        <v>0.467</v>
       </c>
       <c r="F34" t="inlineStr">
         <is>
-          <t>Fanny Yusuf</t>
+          <t>Tidak Diketahui</t>
         </is>
       </c>
       <c r="G34" t="inlineStr">
         <is>
-          <t>Benar</t>
+          <t>Salah</t>
         </is>
       </c>
     </row>
@@ -1414,16 +1414,16 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>1.792</v>
+        <v>1.499</v>
       </c>
       <c r="C35" t="n">
-        <v>0.004</v>
+        <v>0.005</v>
       </c>
       <c r="D35" t="n">
-        <v>0.867</v>
+        <v>0.873</v>
       </c>
       <c r="E35" t="n">
-        <v>1</v>
+        <v>0.533</v>
       </c>
       <c r="F35" t="inlineStr">
         <is>
@@ -1439,49 +1439,49 @@
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>TO_1.png</t>
+          <t>FY_4.png</t>
         </is>
       </c>
       <c r="B36" t="n">
-        <v>1.342</v>
+        <v>1.306</v>
       </c>
       <c r="C36" t="n">
-        <v>0.003</v>
+        <v>0.004</v>
       </c>
       <c r="D36" t="n">
-        <v>0.8129999999999999</v>
+        <v>0.802</v>
       </c>
       <c r="E36" t="n">
-        <v>1</v>
+        <v>0.467</v>
       </c>
       <c r="F36" t="inlineStr">
         <is>
-          <t>Tiara Oktavian</t>
+          <t>Tidak Diketahui</t>
         </is>
       </c>
       <c r="G36" t="inlineStr">
         <is>
-          <t>Benar</t>
+          <t>Salah</t>
         </is>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>TO_2.png</t>
+          <t>TO_1.png</t>
         </is>
       </c>
       <c r="B37" t="n">
-        <v>1.398</v>
+        <v>0.779</v>
       </c>
       <c r="C37" t="n">
         <v>0.003</v>
       </c>
       <c r="D37" t="n">
-        <v>0.83</v>
+        <v>0.792</v>
       </c>
       <c r="E37" t="n">
-        <v>0.9330000000000001</v>
+        <v>0.8</v>
       </c>
       <c r="F37" t="inlineStr">
         <is>
@@ -1497,17 +1497,17 @@
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>TO_3.png</t>
+          <t>TO_2.png</t>
         </is>
       </c>
       <c r="B38" t="n">
-        <v>1.262</v>
+        <v>1.048</v>
       </c>
       <c r="C38" t="n">
         <v>0.003</v>
       </c>
       <c r="D38" t="n">
-        <v>0.8129999999999999</v>
+        <v>0.8169999999999999</v>
       </c>
       <c r="E38" t="n">
         <v>1</v>
@@ -1526,82 +1526,82 @@
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>TO_4.png</t>
+          <t>TO_3.png</t>
         </is>
       </c>
       <c r="B39" t="n">
-        <v>3.786</v>
+        <v>0.847</v>
       </c>
       <c r="C39" t="n">
-        <v>0.01</v>
+        <v>0.003</v>
       </c>
       <c r="D39" t="n">
-        <v>0.714</v>
+        <v>0.8149999999999999</v>
       </c>
       <c r="E39" t="n">
-        <v>0.4</v>
+        <v>1</v>
       </c>
       <c r="F39" t="inlineStr">
         <is>
-          <t>Tidak Diketahui</t>
+          <t>Tiara Oktavian</t>
         </is>
       </c>
       <c r="G39" t="inlineStr">
         <is>
-          <t>Salah</t>
+          <t>Benar</t>
         </is>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>TO_5.png</t>
+          <t>TO_4.png</t>
         </is>
       </c>
       <c r="B40" t="n">
-        <v>1.392</v>
+        <v>7.245</v>
       </c>
       <c r="C40" t="n">
-        <v>0.003</v>
+        <v>0.024</v>
       </c>
       <c r="D40" t="n">
-        <v>0.828</v>
+        <v>0.484</v>
       </c>
       <c r="E40" t="n">
-        <v>0.9330000000000001</v>
+        <v>0.4</v>
       </c>
       <c r="F40" t="inlineStr">
         <is>
-          <t>Tiara Oktavian</t>
+          <t>Tidak Diketahui</t>
         </is>
       </c>
       <c r="G40" t="inlineStr">
         <is>
-          <t>Benar</t>
+          <t>Salah</t>
         </is>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>TD_1.png</t>
+          <t>TO_5.png</t>
         </is>
       </c>
       <c r="B41" t="n">
-        <v>5.355</v>
+        <v>7.107</v>
       </c>
       <c r="C41" t="n">
-        <v>0.01</v>
+        <v>0.023</v>
       </c>
       <c r="D41" t="n">
-        <v>0.476</v>
+        <v>0.493</v>
       </c>
       <c r="E41" t="n">
-        <v>0.6</v>
+        <v>0.333</v>
       </c>
       <c r="F41" t="inlineStr">
         <is>
-          <t>Fanny Yusuf</t>
+          <t>Tidak Diketahui</t>
         </is>
       </c>
       <c r="G41" t="inlineStr">
@@ -1613,20 +1613,20 @@
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
-          <t>TD_2.png</t>
+          <t>TD_1.png</t>
         </is>
       </c>
       <c r="B42" t="n">
-        <v>6.665</v>
+        <v>3.783</v>
       </c>
       <c r="C42" t="n">
-        <v>0.014</v>
+        <v>0.013</v>
       </c>
       <c r="D42" t="n">
-        <v>0.463</v>
+        <v>0.451</v>
       </c>
       <c r="E42" t="n">
-        <v>0.467</v>
+        <v>0.333</v>
       </c>
       <c r="F42" t="inlineStr">
         <is>
@@ -1642,20 +1642,20 @@
     <row r="43">
       <c r="A43" t="inlineStr">
         <is>
-          <t>TD_3.png</t>
+          <t>TD_2.png</t>
         </is>
       </c>
       <c r="B43" t="n">
-        <v>1.484</v>
+        <v>5.006</v>
       </c>
       <c r="C43" t="n">
-        <v>0.003</v>
+        <v>0.017</v>
       </c>
       <c r="D43" t="n">
-        <v>0.728</v>
+        <v>0.479</v>
       </c>
       <c r="E43" t="n">
-        <v>0.2</v>
+        <v>0.333</v>
       </c>
       <c r="F43" t="inlineStr">
         <is>
@@ -1671,20 +1671,20 @@
     <row r="44">
       <c r="A44" t="inlineStr">
         <is>
-          <t>TD_4.png</t>
+          <t>TD_3.png</t>
         </is>
       </c>
       <c r="B44" t="n">
-        <v>1.236</v>
+        <v>1.088</v>
       </c>
       <c r="C44" t="n">
-        <v>0.003</v>
+        <v>0.004</v>
       </c>
       <c r="D44" t="n">
         <v>0.716</v>
       </c>
       <c r="E44" t="n">
-        <v>0.4</v>
+        <v>0.267</v>
       </c>
       <c r="F44" t="inlineStr">
         <is>
@@ -1692,6 +1692,35 @@
         </is>
       </c>
       <c r="G44" t="inlineStr">
+        <is>
+          <t>Benar</t>
+        </is>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" t="inlineStr">
+        <is>
+          <t>TD_4.png</t>
+        </is>
+      </c>
+      <c r="B45" t="n">
+        <v>0.992</v>
+      </c>
+      <c r="C45" t="n">
+        <v>0.003</v>
+      </c>
+      <c r="D45" t="n">
+        <v>0.7</v>
+      </c>
+      <c r="E45" t="n">
+        <v>0.267</v>
+      </c>
+      <c r="F45" t="inlineStr">
+        <is>
+          <t>Tidak Diketahui</t>
+        </is>
+      </c>
+      <c r="G45" t="inlineStr">
         <is>
           <t>Benar</t>
         </is>
